--- a/IEMVH Master.xlsx
+++ b/IEMVH Master.xlsx
@@ -4,26 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="475" yWindow="149" windowWidth="18774" windowHeight="9523" activeTab="4"/>
+    <workbookView xWindow="475" yWindow="204" windowWidth="18774" windowHeight="9469" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Schedule" sheetId="5" r:id="rId1"/>
-    <sheet name="CDP" sheetId="6" r:id="rId2"/>
-    <sheet name="Product Backlog" sheetId="1" r:id="rId3"/>
-    <sheet name="Sprint1" sheetId="2" r:id="rId4"/>
-    <sheet name="Sprint 2" sheetId="3" r:id="rId5"/>
-    <sheet name="Sprint 3" sheetId="4" r:id="rId6"/>
-    <sheet name="PCMMR" sheetId="7" r:id="rId7"/>
+    <sheet name="Sched B CLINs" sheetId="8" r:id="rId1"/>
+    <sheet name="Project Schedule" sheetId="5" r:id="rId2"/>
+    <sheet name="CDP" sheetId="6" r:id="rId3"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="2" r:id="rId5"/>
+    <sheet name="Sprint 2" sheetId="3" r:id="rId6"/>
+    <sheet name="Sprint 3" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="151">
-  <si>
-    <t>Acceptance Criteria</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="197">
   <si>
     <t>Type</t>
   </si>
@@ -46,9 +43,6 @@
     <t>User Story Statement</t>
   </si>
   <si>
-    <t>A field is provided (on Patient VistA screen) to be utilized during Patient pre-registration which enables the VistA user to record whether the Patient has been already been socialized to enrolling in MHV and the Patient's response.</t>
-  </si>
-  <si>
     <t>Modify Data Consistency Check to ensure newly added MHV related fields are populated as desired.</t>
   </si>
   <si>
@@ -58,25 +52,16 @@
     <t>Add/Display VistA alert for MHV enrollment</t>
   </si>
   <si>
-    <t>An alert is provided (on Patient  VistA screen) to be utilized during Patient pre-registration which reminds the VistA user to discuss MHV with the Patient.</t>
-  </si>
-  <si>
     <t>Provide an alert within VistA under certain conditions, reminding the User to populate MHV enrollment fields.</t>
   </si>
   <si>
     <t>Provide a field within VistA to capture whether or not the Patient has been socialized to enrolling in MyHealtheVet.</t>
   </si>
   <si>
-    <t>IEMVH_Vista_MHV_Enroll_Three_Questions</t>
-  </si>
-  <si>
     <t>Add/Display VistA MHV Enrollment questions (3)</t>
   </si>
   <si>
     <t>Provide fields within VistA to capture the Patient's responses for three MHV enrollment questions.</t>
-  </si>
-  <si>
-    <t>Three questions are displayed (on MHV VistA screen) on the Patient pre-registration screen which enables the VistA user to enter the patient responses to each question.</t>
   </si>
   <si>
     <t xml:space="preserve">   As a VistA user, during pre-registration of a Patient,  I want to capture the Patient's responses for three MHV enrollment questions and make the responses accessible the next time the Patient goes thru the pre-registration process.</t>
@@ -584,42 +569,6 @@
     <t>The configuration for the ‘application’ is VistA itself.  BC documented that configuration not necessary for this innovation. 10/1</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Deployable Days</t>
-  </si>
-  <si>
-    <t>Sites Installed</t>
-  </si>
-  <si>
-    <t>Holidays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November </t>
-  </si>
-  <si>
-    <t>Christmas week &amp; New Years Eve</t>
-  </si>
-  <si>
-    <t>Thanksgiving week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December </t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
     <t>Sprint 1</t>
   </si>
   <si>
@@ -686,12 +635,6 @@
     <t>ANA: Facilitate working sessions &amp; SME collaborations</t>
   </si>
   <si>
-    <t>ANA: Update user story and create final draft</t>
-  </si>
-  <si>
-    <t>IEMVH_Vista_MHV_Social_Question</t>
-  </si>
-  <si>
     <t>Add/Display VistA MHV enrollment socialization question</t>
   </si>
   <si>
@@ -719,9 +662,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Not Started</t>
   </si>
   <si>
@@ -759,13 +699,245 @@
   </si>
   <si>
     <t xml:space="preserve">Sprint Story: Provide fields within VistA to capture the Patient's responses for three MHV enrollment questions. </t>
+  </si>
+  <si>
+    <t>CLIN Nbr</t>
+  </si>
+  <si>
+    <t>Deliverable Description</t>
+  </si>
+  <si>
+    <t>Due Date /Frequency</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>0001AA</t>
+  </si>
+  <si>
+    <t>0001AB</t>
+  </si>
+  <si>
+    <t>0001AC</t>
+  </si>
+  <si>
+    <t>0001AD </t>
+  </si>
+  <si>
+    <t>0001AE</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>0002AA</t>
+  </si>
+  <si>
+    <t>0002AB</t>
+  </si>
+  <si>
+    <t>0004AA</t>
+  </si>
+  <si>
+    <t>0005AA</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>0006AA</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>Project Management In Accordance With (IAW) Performance Work Statement (PWS) Paragraph 5.1 of the Task Order (TO) and all of its subparagraphs.
+ This Firm-Fixed Price (FFP) Contract Line Item Number (CLIN) includes all labor, materials, project management and deliverables required for the successful completion of the services detailed in PWS Paragraph 5.1, inclusive of all subparagraphs.
+Period of Performance (POP) shall be August 8, 2014 through February 7, 2015.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Contractor Project Management Plan IAW PWS Paragraph 5.1.1.
+Due September 8, 2014 and updated monthly thereafter.
+Electronic submission to: VA Project Manager (PM), Contracting Officers Representative (COR), Contracting Officer (CO)</t>
+  </si>
+  <si>
+    <t>Contractor’s Progress, Status, and Management (CPSM) Report IAW TO PWS paragraph 4.4 and T4 PWS Paragraph 8.1.1.
+Monthly Progress, Status and Management Report shall be provided IAW TO PWS paragraphs 4.4 and Basic T4 Contract Section C, Performance Work Statement, Paragraph 8.1.1(A-E) and Section J Attachment 005.
+Due within fifteen (15) days after the completion of each calendar month throughout the POP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government Furnished Equipment Status Report IAW T4 PWS Paragraph 8.1.3.
+Government Furnished Equipment Status Report shall be provided in accordance with Basic T4 Contract Section C, PWS, Paragraph 8.1.3 (A-J) and Section J, Attachment 008.
+Due within fifteen (15) days after the completion of each calendar month throughout the POP.
+Electronic submission to: VA PM, COR, CO </t>
+  </si>
+  <si>
+    <t>Collaborative Development Methodology IAW PWS Paragraph 5.2.
+This FFP CLIN includes all labor, materials, project management and deliverables required for the successful completion of the services detailed in PWS Paragraph 5.2.
+Period of Performance (POP) shall be August 8, 2014 through February 7, 2015.</t>
+  </si>
+  <si>
+    <t>Collaborative Deliverable Package IAW PWS Paragraph 5.2.
+Due Seven (7) days after each 30 day sprint cycle throughout the POP.</t>
+  </si>
+  <si>
+    <t>Small Business Participation Report.
+Small Business Participation Report shall be provided in accordance with Basic T4 Contract Section H, clause H-2 Small Business Participation Requirements, and Section J, Attachment 011.
+Due Quarterly 10/15 (for the period ending 9/30), 1/15 (12/31 end), 4/15 (3/31 end) and 7/15 (6/30 end).</t>
+  </si>
+  <si>
+    <t>Personnel Contractor Manpower Report IAW T4 PWS Paragraph 8.1.4.
+Personnel Contractor Manpower Report shall be provided in accordance with Basic T4 Contract Section C, PWS, Paragraph 8.1.4 (A-I) and Section J, Attachments 009 and 010.
+Due within fifteen (15) days after the completion of each calendar month throughout the POP.</t>
+  </si>
+  <si>
+    <t>Internal VA Configuration File IAW PWS
+Paragraph 5.2.
+Due Seven (7) days after each 30 day sprint cycle throughout the POP.
+Electronic submission to: VA PM, COR, CO</t>
+  </si>
+  <si>
+    <t>Grassroots Innovation Functional Requirements IAW PWS Paragraph 5.3, inclusive of all subparagraphs.
+This FFP CLIN includes all labor, materials, project management and deliverables required for the successful completion of the services detailed in PWS paragraph 5. 3, inclusive of all subparagraphs.
+Period of Performance (POP) shall be August 8, 2014 through February 7, 2015.</t>
+  </si>
+  <si>
+    <t>Prototype Demonstration and Correction of Deficiencies IAW PWS Paragraph 5.4.
+This FFP CLIN includes all labor, materials, project management and deliverables required for the successful completion of the services detailed in PWS Paragraph 5.4.
+Period of Performance (POP) shall be August 8, 2014 through February 7, 2015.</t>
+  </si>
+  <si>
+    <t>Prototype Demonstration Report IAW PWS Paragraph 5.4.
+Due Seven (7) days after each 30 day sprint cycle throughout the POP.
+Electronic submission to: VA PM, COR, CO</t>
+  </si>
+  <si>
+    <t>Project Close-Out IAW PWS Paragraph 5.6. This FFP CLIN includes all labor, materials, project management and deliverables required for the successful completion of the services detailed in PWS Paragraph 5.6.
+Period of Performance (POP) shall be August 8, 2014 through February 7, 2015.</t>
+  </si>
+  <si>
+    <t>Summary and Production Integration/Transition Report IAW PWS Paragraph 5.6.
+Due Six (6) months ARO
+Electronic submission to: VA PM, COR, CO</t>
+  </si>
+  <si>
+    <t>External Certification Testing Support IAW PWS Paragraph 5.5. 
+This FFP CLIN includes all labor, materials, project management and deliverables required for the successful completion of the services detailed in PWS paragraph 5.5.
+If Optional Task is exercised, POP shall be February 8, 2015 through May 7, 2015.</t>
+  </si>
+  <si>
+    <t>Updated Github Repository, Internal VA Configuration File, and Collaborative Deliverable Package IAW PWS Paragraph 5.5.
+Due three (3) months after Optional Task Exercised
+Electronic submission to: VA PM, COR, CO</t>
+  </si>
+  <si>
+    <t>Hours Rem on 10/17</t>
+  </si>
+  <si>
+    <t>ANA: Update user story #3 and create final draft</t>
+  </si>
+  <si>
+    <t>Add Actions filter to only display relevant actions</t>
+  </si>
+  <si>
+    <t>Only Filter and display relevant actions for the MHV Socialization and Enrollment questions being asked instead of displaying all 13 for each question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change location of the historical actions table to display right after the MHV alert </t>
+  </si>
+  <si>
+    <t>In the MHV socialization question user story, when a patient responds with "No – I am not interested in enrolling" change text that clerk reads to say:  “We are strongly encouraging patients to enroll in My HealtheVet.  With My HealtheVet you can refill prescriptions and track their delivery, view lab results, and communicate securely with your Health Care teams."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add response to socialization question:
+“ No - I don’t have a computer / internet access” 
+</t>
+  </si>
+  <si>
+    <t>Add an additional patient response to the socialization question for no computer/internet access</t>
+  </si>
+  <si>
+    <t>Add on to Sprint 1</t>
+  </si>
+  <si>
+    <t>Add on to Sprint 2</t>
+  </si>
+  <si>
+    <t>Add "We are strongly encouraging..." text to the MHV socialization scripts</t>
+  </si>
+  <si>
+    <t>IEMVH_Vista_MHV_Enroll_Three_Fields</t>
+  </si>
+  <si>
+    <t>IEMVH_Vista_MHV_Soc_Question</t>
+  </si>
+  <si>
+    <t>DEV: Code MHV consistency checker</t>
+  </si>
+  <si>
+    <t>DEV: Unit Test MHV consistency checker</t>
+  </si>
+  <si>
+    <t>DEV: Design MHV consistency checker</t>
+  </si>
+  <si>
+    <t>SQA: Create Sprint 3 user story Test Scripts</t>
+  </si>
+  <si>
+    <t>SQA: Execute Sprint 3 user story Tests</t>
+  </si>
+  <si>
+    <t>SQA: Prepare for Demo and Perform Demos during sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint Story:  Add Actions filter to only display relevant actions</t>
+  </si>
+  <si>
+    <t>SQA: Create Test Scripts</t>
+  </si>
+  <si>
+    <t>SQA: Execute user story Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEV: Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEV: Code </t>
+  </si>
+  <si>
+    <t>DEV: Unit Test</t>
+  </si>
+  <si>
+    <t>Sprint Start/End = 11/03/2014 – 11/28/2014</t>
+  </si>
+  <si>
+    <t>Add additional responses to the alert section depending if there is a pending socialization action from the previous pre-registration session.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,15 +947,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10.6"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="10.6"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -891,14 +1054,15 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -906,13 +1070,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,6 +1135,35 @@
     </fill>
     <fill>
       <patternFill patternType="gray0625"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF093678"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -1037,66 +1268,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1104,31 +1287,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1155,86 +1338,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1250,13 +1393,13 @@
     <xf numFmtId="0" fontId="0" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1265,14 +1408,161 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1286,11 +1576,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1658,6 +1946,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="58.25" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="9" width="9" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="64">
+        <v>41852</v>
+      </c>
+      <c r="E1" s="65">
+        <v>41883</v>
+      </c>
+      <c r="F1" s="65">
+        <v>41913</v>
+      </c>
+      <c r="G1" s="65">
+        <v>41944</v>
+      </c>
+      <c r="H1" s="65">
+        <v>41640</v>
+      </c>
+      <c r="I1" s="65">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+    </row>
+    <row r="3" spans="1:9" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="1:9" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+    </row>
+    <row r="5" spans="1:9" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="1:9" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+    </row>
+    <row r="7" spans="1:9" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="1:9" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="1:9" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:9" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="1:9" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+    </row>
+    <row r="13" spans="1:9" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+    </row>
+    <row r="14" spans="1:9" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+    </row>
+    <row r="15" spans="1:9" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="60">
+        <v>42036</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+    </row>
+    <row r="16" spans="1:9" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="1:9" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="60">
+        <v>42125</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1672,27 +2351,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
+      <c r="A1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="28"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1701,497 +2380,332 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.75" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="42" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="41" customWidth="1"/>
-    <col min="5" max="5" width="32.25" style="74" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="74" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="74" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="39.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="21" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.25" style="39" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="39" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="39" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="B2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+    </row>
+    <row r="6" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="E6" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-    </row>
-    <row r="3" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="B8" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-    </row>
-    <row r="4" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="B9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-    </row>
-    <row r="6" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="B10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="B11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="54" t="s">
+      <c r="B12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-    </row>
-    <row r="8" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="B13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-    </row>
-    <row r="11" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="B14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-    </row>
-    <row r="12" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-    </row>
-    <row r="13" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-    </row>
-    <row r="14" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.75" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="36.875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="43.75" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13" style="15" customWidth="1"/>
-    <col min="6" max="6" width="40.125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="11" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="22">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="99.85" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="23" customFormat="1" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="12">
-        <v>2</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="12">
-        <v>3</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2201,577 +2715,860 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5" style="78" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="78" customWidth="1"/>
+    <col min="3" max="3" width="32.75" style="78" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="78" customWidth="1"/>
+    <col min="5" max="5" width="13" style="79" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="80" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="81" customWidth="1"/>
+    <col min="8" max="8" width="11" style="81" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="67.95" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88">
+        <v>1</v>
+      </c>
+      <c r="H2" s="88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="135.85" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88">
+        <v>1</v>
+      </c>
+      <c r="H3" s="88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="88">
+        <v>1</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="73" customFormat="1" ht="95.1" x14ac:dyDescent="0.25">
+      <c r="A5" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93">
+        <v>2</v>
+      </c>
+      <c r="H5" s="93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54.35" x14ac:dyDescent="0.25">
+      <c r="A6" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="93">
+        <v>2</v>
+      </c>
+      <c r="H6" s="93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="54.35" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="90"/>
+      <c r="E7" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="93">
+        <v>2</v>
+      </c>
+      <c r="H7" s="93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="135.85" x14ac:dyDescent="0.25">
+      <c r="A8" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="93">
+        <v>2</v>
+      </c>
+      <c r="H8" s="93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="40.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="97"/>
+      <c r="G9" s="98">
+        <v>3</v>
+      </c>
+      <c r="H9" s="98" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="67.95" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="97"/>
+      <c r="G10" s="98">
+        <v>3</v>
+      </c>
+      <c r="H10" s="98" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+    </row>
+    <row r="12" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B23"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="46" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="25" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="25" customWidth="1"/>
     <col min="5" max="5" width="37.125" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="A1" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>85</v>
+        <v>47</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>25</v>
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="46">
+        <v>50</v>
+      </c>
+      <c r="G2" s="25">
         <f>B23+B45</f>
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="22">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2">
         <v>0.5</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="22">
         <v>0</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>57</v>
+      <c r="D3" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="46">
+        <v>54</v>
+      </c>
+      <c r="G3" s="25">
         <f>B16+B40</f>
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="22">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.5</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>57</v>
+      <c r="D4" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="46">
+        <v>56</v>
+      </c>
+      <c r="G4" s="25">
         <f>B6+B11</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="22">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="22">
         <v>0</v>
       </c>
-      <c r="D5" s="43" t="s">
-        <v>57</v>
+      <c r="D5" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="22">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="22">
         <v>0</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>57</v>
+      <c r="D6" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="44">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="23">
         <v>2</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="22">
         <v>0</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>57</v>
+      <c r="D7" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="48">
+      <c r="A8" s="1"/>
+      <c r="B8" s="27">
         <f>SUM(B3:B7)</f>
         <v>6</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="22">
-        <v>3</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43" t="s">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="22">
+      <c r="B15" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="22">
-        <v>8</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="22">
-        <v>2</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="22">
-        <v>1</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="44">
-        <v>2</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43" t="s">
-        <v>67</v>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="47">
+      <c r="A16" s="1"/>
+      <c r="B16" s="26">
         <f>SUM(B10:B15)</f>
         <v>18</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="22">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2">
         <v>24</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="22">
         <v>0</v>
       </c>
-      <c r="D19" s="43" t="s">
-        <v>74</v>
+      <c r="D19" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="22">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2">
         <v>8</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="22">
         <v>0</v>
       </c>
-      <c r="D20" s="43" t="s">
-        <v>74</v>
+      <c r="D20" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="22">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="2">
         <v>16</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="22">
         <v>0</v>
       </c>
-      <c r="D21" s="43" t="s">
-        <v>74</v>
+      <c r="D21" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="44">
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="23">
         <v>8</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="22">
         <v>0</v>
       </c>
-      <c r="D22" s="43" t="s">
-        <v>74</v>
+      <c r="D22" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="49">
+      <c r="A23" s="1"/>
+      <c r="B23" s="28">
         <f>SUM(B19:B22)</f>
         <v>56</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
+      <c r="A26" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="102"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>25</v>
+      <c r="A27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="22">
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2">
         <v>1.5</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="22">
         <v>0</v>
       </c>
-      <c r="D28" s="43" t="s">
-        <v>57</v>
+      <c r="D28" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="22">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="2">
         <v>0.5</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="22">
         <v>0</v>
       </c>
-      <c r="D29" s="43" t="s">
-        <v>57</v>
+      <c r="D29" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="22">
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="22">
         <v>0</v>
       </c>
-      <c r="D30" s="43" t="s">
-        <v>57</v>
+      <c r="D30" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="22">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="2">
         <v>6</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="22">
         <v>0</v>
       </c>
-      <c r="D31" s="43" t="s">
-        <v>57</v>
+      <c r="D31" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="44">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="23">
         <v>2</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="22">
         <v>0</v>
       </c>
-      <c r="D32" s="43" t="s">
-        <v>57</v>
+      <c r="D32" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="48">
+      <c r="A33" s="1"/>
+      <c r="B33" s="27">
         <f>SUM(B28:B32)</f>
         <v>11</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="22">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2">
         <v>2</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="22">
-        <v>8</v>
-      </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="22">
+      <c r="B39" s="23">
         <v>2</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="22">
-        <v>1</v>
-      </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="44">
-        <v>2</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43" t="s">
-        <v>67</v>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="47">
+      <c r="A40" s="1"/>
+      <c r="B40" s="26">
         <f>SUM(B35:B39)</f>
         <v>15</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="22">
+      <c r="A42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2">
         <v>40</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="22">
         <v>0</v>
       </c>
-      <c r="D42" s="43" t="s">
-        <v>74</v>
+      <c r="D42" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="22">
+      <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="2">
         <v>32</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="22">
         <v>0</v>
       </c>
-      <c r="D43" s="43" t="s">
-        <v>74</v>
+      <c r="D43" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="44">
+      <c r="A44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="23">
         <v>32</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="22">
         <v>0</v>
       </c>
-      <c r="D44" s="43" t="s">
-        <v>74</v>
+      <c r="D44" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="49">
+      <c r="A45" s="1"/>
+      <c r="B45" s="28">
         <f>SUM(B42:B44)</f>
         <v>104</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2783,19 +3580,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="25" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="36.75" customWidth="1"/>
     <col min="6" max="6" width="24.875" customWidth="1"/>
@@ -2803,252 +3600,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="A1" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>25</v>
+        <v>102</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="46">
+        <v>105</v>
+      </c>
+      <c r="G2" s="25">
         <f>B15</f>
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="22">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="43" t="s">
-        <v>67</v>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="46">
+        <v>106</v>
+      </c>
+      <c r="G3" s="25">
         <f>B8+B20</f>
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="22">
+      <c r="A4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="46"/>
+      <c r="C4" s="2">
+        <v>8</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="22">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="46"/>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="22">
+      <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="43" t="s">
-        <v>67</v>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="44">
+      <c r="A7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="23">
         <v>2</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="43" t="s">
-        <v>67</v>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="47">
+      <c r="A8" s="1"/>
+      <c r="B8" s="26">
         <f>SUM(B3:B7)</f>
         <v>16</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="A9" s="1"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="22">
+      <c r="A10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="2">
         <v>24</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="46"/>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="22">
+      <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="2">
         <v>24</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="43" t="s">
-        <v>74</v>
+      <c r="C11" s="22">
+        <v>8</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="22">
+      <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="2">
         <v>24</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="43" t="s">
-        <v>74</v>
+      <c r="C12" s="22">
+        <v>8</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="89">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="50">
         <v>16</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="43" t="s">
-        <v>74</v>
+      <c r="C13" s="22">
+        <v>10</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="44">
+      <c r="A14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="23">
         <v>2</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="43" t="s">
-        <v>74</v>
+      <c r="C14" s="22">
+        <v>2</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="49">
+      <c r="A15" s="1"/>
+      <c r="B15" s="28">
         <f>SUM(B10:B14)</f>
         <v>90</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="22">
+      <c r="A17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="43" t="s">
-        <v>67</v>
+      <c r="C17" s="22">
+        <v>4</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="89">
+      <c r="A18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="50">
         <v>8</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="43" t="s">
-        <v>67</v>
+      <c r="C18" s="22">
+        <v>2</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="44">
+      <c r="A19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="23">
         <v>2</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="43" t="s">
-        <v>67</v>
+      <c r="C19" s="22">
+        <v>2</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="47">
+      <c r="A20" s="1"/>
+      <c r="B20" s="26">
         <f>SUM(B17:B19)</f>
         <v>18</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3059,420 +3882,279 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="1" max="1" width="58.125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="25">
+        <f>B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="25" t="e">
+        <f>#REF!+B18</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="33.25" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="46" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="62">
-        <v>6</v>
-      </c>
-      <c r="D2" s="63">
-        <v>12</v>
-      </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="62">
-        <v>14</v>
-      </c>
-      <c r="D3" s="63">
-        <v>28</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="62">
-        <v>17</v>
-      </c>
-      <c r="D4" s="63">
-        <v>34</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="62">
-        <v>16</v>
-      </c>
-      <c r="D5" s="63">
-        <v>32</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="62">
-        <v>16</v>
-      </c>
-      <c r="D6" s="63">
-        <v>32</v>
-      </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="65">
-        <f>SUM(D2:D7)</f>
-        <v>138</v>
-      </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-    </row>
-  </sheetData>
-  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
